--- a/tests/test_data/tickoff_synthetic.xlsx
+++ b/tests/test_data/tickoff_synthetic.xlsx
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="61">
   <si>
     <t xml:space="preserve">filler</t>
   </si>
@@ -156,16 +156,10 @@
     <t xml:space="preserve">Anzahl Anteile klein</t>
   </si>
   <si>
-    <t xml:space="preserve">Phantomias, P.</t>
+    <t xml:space="preserve">Duck, D.</t>
   </si>
   <si>
     <t xml:space="preserve">Gans, G.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duck, D.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicky, N.</t>
   </si>
   <si>
     <t xml:space="preserve">Habakuk, H.</t>
@@ -186,13 +180,148 @@
     <t xml:space="preserve">Huhn, H.</t>
   </si>
   <si>
-    <t xml:space="preserve">Zanker, Z.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Zahltag, G.</t>
   </si>
   <si>
-    <t xml:space="preserve">Gollersberg, G.</t>
+    <t xml:space="preserve">Helferlein, H.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gans, F.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duck, M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klever, K.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doofy, D.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaukeleys, G.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bubba, B.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schmutzgeier, S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ducky, Q.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schlamassi, S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bürgermeister, B.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oona, O.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nimmermehr, N.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B-Hörnchen, B.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Billy, B.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schofel, S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DuckDonna, D.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menetekel, M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DuckDorette, D.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Truz, T.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Düsentrieb, D.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quack, Q.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moneysac, M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spitzkriegler, S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ganter, G.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bogart, H.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DuckDettmar, D.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duck, T.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knäul, K.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DuckDucky, D.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">von Quack, P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carioca, J.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaukeley, G.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-Hörnchen, A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Habicht, H.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duck, N.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zavolta, Z.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DuckTrick, T.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DuckDackyy, D.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DuckDoofy, D.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fränzchen, F.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pistoles, P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panzerknacker, P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erpel, E.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mim, M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DuckDolly, D.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spectaculus, L.</t>
   </si>
 </sst>
 </file>
@@ -282,7 +411,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -315,20 +444,44 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -664,8 +817,8 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H25" activeCellId="1" sqref="A8:G10 H25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -785,18 +938,18 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
@@ -811,18 +964,18 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
@@ -837,7 +990,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11" s="4" t="n">
         <v>1</v>
@@ -891,13 +1044,13 @@
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="7" t="n">
         <v>1</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F13" s="4" t="n">
         <v>1</v>
@@ -914,19 +1067,13 @@
       <c r="P13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="B14" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="4" t="n">
-        <v>1</v>
+      <c r="F14" s="8" t="n">
+        <v>8</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="6"/>
@@ -940,20 +1087,10 @@
       <c r="P14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="7" t="n">
-        <v>1</v>
-      </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4"/>
       <c r="G15" s="5"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -966,16 +1103,8 @@
       <c r="P15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8"/>
-      <c r="B16" s="4" t="n">
-        <v>9</v>
-      </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9" t="n">
-        <v>12</v>
-      </c>
       <c r="G16" s="5"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -2105,8 +2234,8 @@
   </sheetPr>
   <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A8:G10 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2191,19 +2320,19 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="5" t="n">
-        <v>1</v>
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>2</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="G8" s="9" t="n">
         <v>1</v>
       </c>
       <c r="H8" s="5"/>
@@ -2218,19 +2347,19 @@
       <c r="Q8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="5" t="n">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="5" t="n">
+      <c r="F9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="9" t="n">
         <v>1</v>
       </c>
       <c r="H9" s="5"/>
@@ -2245,16 +2374,20 @@
       <c r="Q9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="n">
-        <v>2</v>
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="n">
-        <v>2</v>
+      <c r="F10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="6"/>
@@ -2268,13 +2401,21 @@
       <c r="Q10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="F11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="H11" s="5"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -2287,13 +2428,21 @@
       <c r="Q11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="F12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="H12" s="5"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -2307,12 +2456,16 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+      <c r="B13" s="10" t="n">
+        <v>6</v>
+      </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="G13" s="10" t="n">
+        <v>5</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -3546,8 +3699,1469 @@
   </sheetPr>
   <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A8:G10 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="22.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="13.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="13.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="22.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="26.16"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="11"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="11"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="11"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="11"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="11"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5"/>
+      <c r="B13" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6"/>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6"/>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="6"/>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6"/>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="6"/>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6"/>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="6"/>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
+  <pageMargins left="0.236111111111111" right="0.236111111111111" top="0.747916666666667" bottom="0.747916666666667" header="0.315277777777778" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Amarante,Regular"&amp;24Solawi Heckengäu</oddHeader>
+    <oddFooter/>
+  </headerFooter>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="true"/>
+  </sheetPr>
+  <dimension ref="A1:Q83"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B2" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3632,24 +5246,22 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="5" t="n">
+      <c r="A8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="11"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
@@ -3659,24 +5271,22 @@
       <c r="Q8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="5" t="n">
+      <c r="A9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
+      <c r="C9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="11"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
@@ -3686,20 +5296,22 @@
       <c r="Q9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+      <c r="A10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="11"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
@@ -3709,16 +5321,22 @@
       <c r="Q10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+      <c r="A11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="11"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
@@ -3728,16 +5346,21 @@
       <c r="Q11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+      <c r="A12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="F12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="11"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
@@ -3747,16 +5370,17 @@
       <c r="Q12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="B13" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="11"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
@@ -3766,13 +5390,12 @@
       <c r="Q13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="F14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="H14" s="5"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -3785,13 +5408,10 @@
       <c r="Q14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="G15" s="10" t="n">
+        <v>9</v>
+      </c>
       <c r="H15" s="5"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -3804,11 +5424,6 @@
       <c r="Q15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -3823,11 +5438,6 @@
       <c r="Q16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -3842,11 +5452,7 @@
       <c r="Q17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -4986,15 +6592,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A8:G10 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5079,24 +6685,22 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="5" t="n">
+      <c r="A8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="5" t="n">
+      <c r="C8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="11"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
@@ -5106,24 +6710,22 @@
       <c r="Q8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="5" t="n">
+      <c r="A9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="5" t="n">
+      <c r="C9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="11"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
@@ -5133,20 +6735,22 @@
       <c r="Q9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+      <c r="A10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="11"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
@@ -5156,16 +6760,22 @@
       <c r="Q10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+      <c r="A11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="11"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
@@ -5175,16 +6785,22 @@
       <c r="Q11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+      <c r="A12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="11"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
@@ -5194,13 +6810,18 @@
       <c r="Q12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="A13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="G13" s="10" t="n">
+        <v>5</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -5213,11 +6834,9 @@
       <c r="Q13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="B14" s="8" t="n">
+        <v>6</v>
+      </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -5232,11 +6851,6 @@
       <c r="Q14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -5251,11 +6865,6 @@
       <c r="Q15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -5270,11 +6879,6 @@
       <c r="Q16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -5289,11 +6893,6 @@
       <c r="Q17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -6433,15 +8032,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8:G10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6495,21 +8094,21 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H7" s="2" t="s">
@@ -6526,24 +8125,23 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="5" t="n">
+      <c r="A8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="5" t="n">
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="4"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
@@ -6553,24 +8151,23 @@
       <c r="Q8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="5" t="n">
+      <c r="A9" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="4"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
@@ -6580,20 +8177,23 @@
       <c r="Q9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H10" s="5"/>
+      <c r="A10" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
@@ -6603,16 +8203,23 @@
       <c r="Q10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="A11" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
@@ -6622,16 +8229,23 @@
       <c r="Q11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="A12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
@@ -6641,13 +8255,19 @@
       <c r="Q12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="A13" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="17" t="n">
+        <v>5</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -6660,13 +8280,15 @@
       <c r="Q13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
       <c r="H14" s="5"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -6679,13 +8301,6 @@
       <c r="Q14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -6698,13 +8313,6 @@
       <c r="Q15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -6717,13 +8325,6 @@
       <c r="Q16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
@@ -6736,13 +8337,6 @@
       <c r="Q17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
@@ -6755,13 +8349,9 @@
       <c r="Q18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="B19" s="6"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -6774,13 +8364,9 @@
       <c r="Q19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="B20" s="6"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -6793,13 +8379,9 @@
       <c r="Q20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+      <c r="B21" s="6"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -6812,13 +8394,10 @@
       <c r="Q21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
       <c r="H22" s="5"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -6831,13 +8410,11 @@
       <c r="Q22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
+      <c r="B23" s="6"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="4"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -6851,8 +8428,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="C24" s="3"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="6"/>
@@ -6870,8 +8446,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+      <c r="C25" s="3"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="6"/>
@@ -6889,8 +8464,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
+      <c r="C26" s="3"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="6"/>
@@ -6908,8 +8482,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
+      <c r="C27" s="3"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="6"/>
@@ -6927,8 +8500,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
+      <c r="C28" s="3"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="6"/>
@@ -6946,8 +8518,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
+      <c r="C29" s="3"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="6"/>
@@ -6965,8 +8536,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
+      <c r="C30" s="3"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="6"/>
@@ -6984,8 +8554,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
+      <c r="C31" s="3"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="6"/>
@@ -7003,8 +8572,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
+      <c r="C32" s="3"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="6"/>
@@ -7022,8 +8590,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
+      <c r="C33" s="3"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="6"/>
@@ -7062,1453 +8629,6 @@
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="6"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="6"/>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
-      <c r="O53" s="6"/>
-      <c r="P53" s="6"/>
-      <c r="Q53" s="6"/>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="6"/>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="6"/>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
-      <c r="O55" s="6"/>
-      <c r="P55" s="6"/>
-      <c r="Q55" s="6"/>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="6"/>
-      <c r="N56" s="6"/>
-      <c r="O56" s="6"/>
-      <c r="P56" s="6"/>
-      <c r="Q56" s="6"/>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="6"/>
-      <c r="O57" s="6"/>
-      <c r="P57" s="6"/>
-      <c r="Q57" s="6"/>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="6"/>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="6"/>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="6"/>
-      <c r="O60" s="6"/>
-      <c r="P60" s="6"/>
-      <c r="Q60" s="6"/>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
-      <c r="M61" s="6"/>
-      <c r="N61" s="6"/>
-      <c r="O61" s="6"/>
-      <c r="P61" s="6"/>
-      <c r="Q61" s="6"/>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
-      <c r="M62" s="6"/>
-      <c r="N62" s="6"/>
-      <c r="O62" s="6"/>
-      <c r="P62" s="6"/>
-      <c r="Q62" s="6"/>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
-      <c r="M63" s="6"/>
-      <c r="N63" s="6"/>
-      <c r="O63" s="6"/>
-      <c r="P63" s="6"/>
-      <c r="Q63" s="6"/>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
-      <c r="M64" s="6"/>
-      <c r="N64" s="6"/>
-      <c r="O64" s="6"/>
-      <c r="P64" s="6"/>
-      <c r="Q64" s="6"/>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
-      <c r="M65" s="6"/>
-      <c r="N65" s="6"/>
-      <c r="O65" s="6"/>
-      <c r="P65" s="6"/>
-      <c r="Q65" s="6"/>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="6"/>
-      <c r="O66" s="6"/>
-      <c r="P66" s="6"/>
-      <c r="Q66" s="6"/>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
-      <c r="M67" s="6"/>
-      <c r="N67" s="6"/>
-      <c r="O67" s="6"/>
-      <c r="P67" s="6"/>
-      <c r="Q67" s="6"/>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
-      <c r="N68" s="6"/>
-      <c r="O68" s="6"/>
-      <c r="P68" s="6"/>
-      <c r="Q68" s="6"/>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
-      <c r="M69" s="6"/>
-      <c r="N69" s="6"/>
-      <c r="O69" s="6"/>
-      <c r="P69" s="6"/>
-      <c r="Q69" s="6"/>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="6"/>
-      <c r="P70" s="6"/>
-      <c r="Q70" s="6"/>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
-      <c r="M71" s="6"/>
-      <c r="N71" s="6"/>
-      <c r="O71" s="6"/>
-      <c r="P71" s="6"/>
-      <c r="Q71" s="6"/>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
-      <c r="L72" s="6"/>
-      <c r="M72" s="6"/>
-      <c r="N72" s="6"/>
-      <c r="O72" s="6"/>
-      <c r="P72" s="6"/>
-      <c r="Q72" s="6"/>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
-      <c r="M73" s="6"/>
-      <c r="N73" s="6"/>
-      <c r="O73" s="6"/>
-      <c r="P73" s="6"/>
-      <c r="Q73" s="6"/>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
-      <c r="M74" s="6"/>
-      <c r="N74" s="6"/>
-      <c r="O74" s="6"/>
-      <c r="P74" s="6"/>
-      <c r="Q74" s="6"/>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.236111111111111" right="0.236111111111111" top="0.747916666666667" bottom="0.747916666666667" header="0.315277777777778" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Amarante,Regular"&amp;24Solawi Heckengäu</oddHeader>
-    <oddFooter/>
-  </headerFooter>
-  <tableParts>
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="true"/>
-  </sheetPr>
-  <dimension ref="A1:Q83"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8:G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="22.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="13.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="13.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="22.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="26.16"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0"/>
-      <c r="B11" s="0"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="0"/>
-      <c r="G11" s="0"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0"/>
-      <c r="B12" s="0"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="0"/>
-      <c r="G12" s="0"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0"/>
-      <c r="B13" s="0"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="0"/>
-      <c r="G13" s="0"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0"/>
-      <c r="B14" s="0"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="0"/>
-      <c r="G14" s="0"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0"/>
-      <c r="B15" s="0"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="0"/>
-      <c r="G15" s="0"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0"/>
-      <c r="B16" s="0"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="0"/>
-      <c r="G16" s="0"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5"/>
-      <c r="B29" s="0"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5"/>
-      <c r="B30" s="0"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5"/>
-      <c r="B31" s="0"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5"/>
-      <c r="B32" s="0"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5"/>
-      <c r="B33" s="0"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="10"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="6"/>

--- a/tests/test_data/tickoff_synthetic.xlsx
+++ b/tests/test_data/tickoff_synthetic.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="PER" sheetId="1" state="visible" r:id="rId3"/>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="63">
   <si>
     <t xml:space="preserve">filler</t>
   </si>
@@ -159,7 +159,7 @@
     <t xml:space="preserve">Duck, D.</t>
   </si>
   <si>
-    <t xml:space="preserve">Gans, G.</t>
+    <t xml:space="preserve">GansGolo, G.</t>
   </si>
   <si>
     <t xml:space="preserve">Habakuk, H.</t>
@@ -186,7 +186,7 @@
     <t xml:space="preserve">Helferlein, H.</t>
   </si>
   <si>
-    <t xml:space="preserve">Gans, F.</t>
+    <t xml:space="preserve">GansFranz, F.</t>
   </si>
   <si>
     <t xml:space="preserve">Duck, M.</t>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t xml:space="preserve">Schlamassi, S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gans, G.</t>
   </si>
   <si>
     <t xml:space="preserve">Bürgermeister, B.</t>
@@ -295,6 +298,9 @@
   </si>
   <si>
     <t xml:space="preserve">DuckTrick, T.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GansGitta, G.</t>
   </si>
   <si>
     <t xml:space="preserve">DuckDackyy, D.</t>
@@ -411,7 +417,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -458,30 +464,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -817,8 +799,8 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2234,8 +2216,8 @@
   </sheetPr>
   <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3811,7 +3793,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B9" s="4" t="n">
         <v>1</v>
@@ -3819,7 +3801,7 @@
       <c r="C9" s="4"/>
       <c r="E9" s="5"/>
       <c r="F9" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G9" s="4" t="n">
         <v>1</v>
@@ -3844,7 +3826,7 @@
       <c r="C10" s="4"/>
       <c r="E10" s="5"/>
       <c r="F10" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G10" s="4" t="n">
         <v>1</v>
@@ -3861,7 +3843,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="4" t="n">
         <v>1</v>
@@ -3869,7 +3851,7 @@
       <c r="C11" s="4"/>
       <c r="E11" s="5"/>
       <c r="F11" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G11" s="4" t="n">
         <v>1</v>
@@ -3886,7 +3868,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="7" t="n">
         <v>1</v>
@@ -3894,7 +3876,7 @@
       <c r="C12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G12" s="4" t="n">
         <v>1</v>
@@ -5247,7 +5229,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>2</v>
@@ -5255,7 +5237,7 @@
       <c r="C8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G8" s="4" t="n">
         <v>1</v>
@@ -5272,7 +5254,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" s="4" t="n">
         <v>1</v>
@@ -5280,7 +5262,7 @@
       <c r="C9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G9" s="4" t="n">
         <v>3</v>
@@ -5297,7 +5279,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" s="4" t="n">
         <v>1</v>
@@ -5305,7 +5287,7 @@
       <c r="C10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G10" s="4" t="n">
         <v>1</v>
@@ -5322,7 +5304,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" s="4" t="n">
         <v>1</v>
@@ -5330,7 +5312,7 @@
       <c r="C11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G11" s="4" t="n">
         <v>1</v>
@@ -5347,14 +5329,14 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" s="7" t="n">
         <v>1</v>
       </c>
       <c r="C12" s="4"/>
       <c r="F12" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G12" s="4" t="n">
         <v>1</v>
@@ -5374,7 +5356,7 @@
         <v>6</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G13" s="4" t="n">
         <v>1</v>
@@ -5391,7 +5373,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F14" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G14" s="10" t="n">
         <v>1</v>
@@ -6686,7 +6668,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>1</v>
@@ -6694,7 +6676,7 @@
       <c r="C8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" s="4" t="n">
         <v>1</v>
@@ -6711,7 +6693,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" s="4" t="n">
         <v>1</v>
@@ -6719,7 +6701,7 @@
       <c r="C9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G9" s="4" t="n">
         <v>1</v>
@@ -6736,7 +6718,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" s="4" t="n">
         <v>1</v>
@@ -6744,7 +6726,7 @@
       <c r="C10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G10" s="4" t="n">
         <v>1</v>
@@ -6761,7 +6743,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" s="4" t="n">
         <v>1</v>
@@ -6769,7 +6751,7 @@
       <c r="C11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G11" s="4" t="n">
         <v>1</v>
@@ -6786,7 +6768,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12" s="4" t="n">
         <v>1</v>
@@ -6794,7 +6776,7 @@
       <c r="C12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G12" s="4" t="n">
         <v>1</v>
@@ -6811,7 +6793,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B13" s="7" t="n">
         <v>1</v>
@@ -8039,8 +8021,8 @@
   </sheetPr>
   <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8094,21 +8076,21 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H7" s="2" t="s">
@@ -8125,19 +8107,18 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="14" t="n">
+      <c r="A8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="14" t="n">
+      <c r="C8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H8" s="4"/>
@@ -8151,19 +8132,18 @@
       <c r="Q8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="14" t="n">
+      <c r="A9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="14" t="n">
+      <c r="C9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H9" s="4"/>
@@ -8177,19 +8157,18 @@
       <c r="Q9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="14" t="n">
+      <c r="A10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="14" t="n">
+      <c r="C10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H10" s="4"/>
@@ -8203,19 +8182,18 @@
       <c r="Q10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="14" t="n">
+      <c r="A11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="14" t="n">
+      <c r="C11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H11" s="4"/>
@@ -8229,19 +8207,18 @@
       <c r="Q11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="14" t="n">
+      <c r="A12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="14" t="n">
+      <c r="C12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H12" s="4"/>
@@ -8255,17 +8232,15 @@
       <c r="Q12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="16" t="n">
+      <c r="A13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="17" t="n">
+      <c r="C13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="G13" s="8" t="n">
         <v>5</v>
       </c>
       <c r="H13" s="5"/>
@@ -8280,15 +8255,9 @@
       <c r="Q13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15"/>
-      <c r="B14" s="17" t="n">
+      <c r="B14" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
       <c r="H14" s="5"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
